--- a/data/trans_orig/IP15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DF803D0-A83C-4888-8E67-A04B14911B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DBF6EF-901B-4580-B16C-1EF9EB4D5205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D46F0991-5878-4E09-8FD0-3024A2C329DC}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F013119B-A0BA-4674-B19D-A09AB496B971}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>80,53%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>82,56%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>19,47%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>23,48%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>18,4%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
     <t>80,09%</t>
   </si>
   <si>
@@ -413,6 +413,114 @@
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
     <t>81,99%</t>
   </si>
   <si>
@@ -461,58 +569,58 @@
     <t>22,12%</t>
   </si>
   <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
   </si>
   <si>
     <t>77,17%</t>
@@ -563,114 +671,6 @@
     <t>25,1%</t>
   </si>
   <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
     <t>78,91%</t>
   </si>
   <si>
@@ -722,6 +722,114 @@
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
     <t>81,66%</t>
   </si>
   <si>
@@ -776,58 +884,58 @@
     <t>22,7%</t>
   </si>
   <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
   </si>
   <si>
     <t>85,35%</t>
@@ -884,114 +992,6 @@
     <t>18,18%</t>
   </si>
   <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
     <t>83,45%</t>
   </si>
   <si>
@@ -1049,6 +1049,108 @@
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
     <t>75,61%</t>
   </si>
   <si>
@@ -1103,52 +1205,58 @@
     <t>27,26%</t>
   </si>
   <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
   </si>
   <si>
     <t>81,47%</t>
@@ -1203,114 +1311,6 @@
   </si>
   <si>
     <t>21,71%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
   </si>
   <si>
     <t>76,2%</t>
@@ -1732,7 +1732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6F6E2E-1717-41C4-B54B-F693971F8F9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAB30A-E486-4145-BC07-155D096FFA8C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1850,10 +1850,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="D4" s="7">
-        <v>170836</v>
+        <v>20657</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1865,10 +1865,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>153516</v>
+        <v>13030</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1880,10 +1880,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>505</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>324353</v>
+        <v>33687</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1901,10 +1901,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1916,10 +1916,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1931,10 +1931,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1952,10 +1952,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1967,10 +1967,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1982,10 +1982,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2160,10 +2160,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D10" s="7">
-        <v>169007</v>
+        <v>170836</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2175,10 +2175,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="I10" s="7">
-        <v>183638</v>
+        <v>153516</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2190,10 +2190,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="N10" s="7">
-        <v>352645</v>
+        <v>324353</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2211,10 +2211,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2226,10 +2226,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I11" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2241,10 +2241,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N11" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2262,10 +2262,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2277,10 +2277,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2292,10 +2292,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2315,10 +2315,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>27</v>
+        <v>178</v>
       </c>
       <c r="D13" s="7">
-        <v>20657</v>
+        <v>114534</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2330,10 +2330,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="I13" s="7">
-        <v>13030</v>
+        <v>112653</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2345,10 +2345,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>365</v>
       </c>
       <c r="N13" s="7">
-        <v>33687</v>
+        <v>227188</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2366,10 +2366,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2381,10 +2381,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2396,10 +2396,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N14" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2417,10 +2417,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2432,10 +2432,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2447,10 +2447,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2470,10 +2470,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="D16" s="7">
-        <v>114534</v>
+        <v>169007</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2485,10 +2485,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="I16" s="7">
-        <v>112653</v>
+        <v>183638</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2500,10 +2500,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="N16" s="7">
-        <v>227188</v>
+        <v>352645</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2521,10 +2521,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2536,10 +2536,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2551,10 +2551,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N17" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2572,10 +2572,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2587,10 +2587,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2602,10 +2602,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2646,7 +2646,7 @@
         <v>555716</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>110</v>
@@ -2697,7 +2697,7 @@
         <v>125305</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>118</v>
@@ -2790,7 +2790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDA72B9-1397-4043-BF19-0A0B9F5CF920}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105308C6-15F5-4CAC-BAF6-48042F94B9F2}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2908,10 +2908,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>183515</v>
+        <v>22803</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>124</v>
@@ -2923,34 +2923,34 @@
         <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>164854</v>
+        <v>16139</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
-        <v>524</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>348369</v>
+        <v>38943</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +2959,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>40320</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>41504</v>
+        <v>6234</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>43</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="N5" s="7">
-        <v>81824</v>
+        <v>8885</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,10 +3010,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>223835</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3025,10 +3025,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3040,10 +3040,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>430193</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3069,13 +3069,13 @@
         <v>97457</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>129</v>
@@ -3084,13 +3084,13 @@
         <v>91772</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>268</v>
@@ -3099,13 +3099,13 @@
         <v>189228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3120,13 @@
         <v>31772</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3135,13 +3135,13 @@
         <v>25212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>78</v>
@@ -3150,13 +3150,13 @@
         <v>56985</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,49 +3218,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="D10" s="7">
-        <v>159668</v>
+        <v>183515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H10" s="7">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="I10" s="7">
-        <v>168514</v>
+        <v>164854</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>437</v>
+        <v>524</v>
       </c>
       <c r="N10" s="7">
-        <v>328182</v>
+        <v>348369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,49 +3269,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>56</v>
+      </c>
+      <c r="D11" s="7">
+        <v>40320</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="7">
         <v>63</v>
       </c>
-      <c r="D11" s="7">
-        <v>47229</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="H11" s="7">
-        <v>56</v>
-      </c>
       <c r="I11" s="7">
-        <v>41786</v>
+        <v>41504</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="M11" s="7">
         <v>119</v>
       </c>
       <c r="N11" s="7">
-        <v>89015</v>
+        <v>81824</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>206897</v>
+        <v>223835</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3335,10 +3335,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3350,10 +3350,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="N12" s="7">
-        <v>417197</v>
+        <v>430193</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3373,49 +3373,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>22803</v>
+        <v>129991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
-        <v>19</v>
+        <v>189</v>
       </c>
       <c r="I13" s="7">
-        <v>16139</v>
+        <v>122412</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="N13" s="7">
-        <v>38943</v>
+        <v>252403</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,49 +3424,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="D14" s="7">
-        <v>2652</v>
+        <v>36601</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>6234</v>
+        <v>32964</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="N14" s="7">
-        <v>8885</v>
+        <v>69565</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,10 +3475,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>166592</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3490,10 +3490,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3505,10 +3505,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>321968</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3528,49 +3528,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>218</v>
+      </c>
+      <c r="D16" s="7">
+        <v>159668</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="7">
+        <v>219</v>
+      </c>
+      <c r="I16" s="7">
+        <v>168514</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="7">
-        <v>129991</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H16" s="7">
-        <v>189</v>
-      </c>
-      <c r="I16" s="7">
-        <v>122412</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="M16" s="7">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="N16" s="7">
-        <v>252403</v>
+        <v>328182</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,43 +3579,43 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D17" s="7">
-        <v>36601</v>
+        <v>47229</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>32964</v>
+        <v>41786</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N17" s="7">
-        <v>69565</v>
+        <v>89015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>208</v>
@@ -3630,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>166592</v>
+        <v>206897</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3645,10 +3645,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3660,10 +3660,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>321968</v>
+        <v>417197</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3710,7 +3710,7 @@
         <v>214</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M19" s="7">
         <v>1661</v>
@@ -3758,7 +3758,7 @@
         <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>222</v>
@@ -3848,7 +3848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5581DD8-B22C-486C-B23E-BB9511E53333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A83B3-E0E1-4D44-9D43-31970F0D9690}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3966,10 +3966,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>183212</v>
+        <v>22064</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3981,10 +3981,10 @@
         <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>265</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>164548</v>
+        <v>16048</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -3996,10 +3996,10 @@
         <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>536</v>
+        <v>43</v>
       </c>
       <c r="N4" s="7">
-        <v>347760</v>
+        <v>38112</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -4017,10 +4017,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>41147</v>
+        <v>3510</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -4032,10 +4032,10 @@
         <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>42699</v>
+        <v>6479</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -4047,10 +4047,10 @@
         <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>130</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>83846</v>
+        <v>9989</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -4068,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4083,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4098,10 +4098,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4276,10 +4276,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="D10" s="7">
-        <v>175590</v>
+        <v>183212</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4291,10 +4291,10 @@
         <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="I10" s="7">
-        <v>174632</v>
+        <v>164548</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4306,10 +4306,10 @@
         <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="N10" s="7">
-        <v>350222</v>
+        <v>347760</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4327,10 +4327,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D11" s="7">
-        <v>30146</v>
+        <v>41147</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4342,10 +4342,10 @@
         <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="I11" s="7">
-        <v>32788</v>
+        <v>42699</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -4357,10 +4357,10 @@
         <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>86</v>
+        <v>130</v>
       </c>
       <c r="N11" s="7">
-        <v>62934</v>
+        <v>83846</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -4378,10 +4378,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4393,10 +4393,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4408,10 +4408,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4431,10 +4431,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="D13" s="7">
-        <v>22064</v>
+        <v>138867</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4446,10 +4446,10 @@
         <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="I13" s="7">
-        <v>16048</v>
+        <v>128382</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>284</v>
@@ -4461,10 +4461,10 @@
         <v>286</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>417</v>
       </c>
       <c r="N13" s="7">
-        <v>38112</v>
+        <v>267249</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>287</v>
@@ -4482,10 +4482,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>3510</v>
+        <v>27806</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>290</v>
@@ -4497,10 +4497,10 @@
         <v>292</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I14" s="7">
-        <v>6479</v>
+        <v>27615</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>293</v>
@@ -4512,10 +4512,10 @@
         <v>295</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="N14" s="7">
-        <v>9989</v>
+        <v>55421</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>296</v>
@@ -4533,10 +4533,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4548,10 +4548,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4563,10 +4563,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4586,10 +4586,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="D16" s="7">
-        <v>138867</v>
+        <v>175590</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>299</v>
@@ -4601,10 +4601,10 @@
         <v>301</v>
       </c>
       <c r="H16" s="7">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="I16" s="7">
-        <v>128382</v>
+        <v>174632</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>302</v>
@@ -4616,10 +4616,10 @@
         <v>304</v>
       </c>
       <c r="M16" s="7">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="N16" s="7">
-        <v>267249</v>
+        <v>350222</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>305</v>
@@ -4637,10 +4637,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
-        <v>27806</v>
+        <v>30146</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>308</v>
@@ -4652,10 +4652,10 @@
         <v>310</v>
       </c>
       <c r="H17" s="7">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>27615</v>
+        <v>32788</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>311</v>
@@ -4667,10 +4667,10 @@
         <v>313</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N17" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>314</v>
@@ -4688,10 +4688,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4703,10 +4703,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4718,10 +4718,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4906,7 +4906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233ED7E1-50F0-437E-A303-A61C1CCCF3ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FE8435-97D4-4ECC-9916-F87C274AD1E7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5024,10 +5024,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>188610</v>
+        <v>8531</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>336</v>
@@ -5039,10 +5039,10 @@
         <v>338</v>
       </c>
       <c r="H4" s="7">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>152179</v>
+        <v>10575</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>339</v>
@@ -5054,10 +5054,10 @@
         <v>341</v>
       </c>
       <c r="M4" s="7">
-        <v>469</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>340789</v>
+        <v>19107</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>342</v>
@@ -5075,10 +5075,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>91</v>
+        <v>7</v>
       </c>
       <c r="D5" s="7">
-        <v>60845</v>
+        <v>4167</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>345</v>
@@ -5090,10 +5090,10 @@
         <v>347</v>
       </c>
       <c r="H5" s="7">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>40173</v>
+        <v>6212</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>348</v>
@@ -5105,10 +5105,10 @@
         <v>350</v>
       </c>
       <c r="M5" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="N5" s="7">
-        <v>101018</v>
+        <v>10378</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>351</v>
@@ -5126,10 +5126,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>342</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>249455</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5141,10 +5141,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5156,10 +5156,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>622</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>441807</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5191,7 +5191,7 @@
         <v>355</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>135</v>
@@ -5239,7 +5239,7 @@
         <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>363</v>
@@ -5334,10 +5334,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>192</v>
+        <v>251</v>
       </c>
       <c r="D10" s="7">
-        <v>142589</v>
+        <v>188610</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>370</v>
@@ -5349,10 +5349,10 @@
         <v>372</v>
       </c>
       <c r="H10" s="7">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="I10" s="7">
-        <v>141134</v>
+        <v>152179</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>373</v>
@@ -5364,10 +5364,10 @@
         <v>375</v>
       </c>
       <c r="M10" s="7">
-        <v>385</v>
+        <v>469</v>
       </c>
       <c r="N10" s="7">
-        <v>283722</v>
+        <v>340789</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>376</v>
@@ -5385,10 +5385,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D11" s="7">
-        <v>32427</v>
+        <v>60845</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>379</v>
@@ -5400,10 +5400,10 @@
         <v>381</v>
       </c>
       <c r="H11" s="7">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>30809</v>
+        <v>40173</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>382</v>
@@ -5415,10 +5415,10 @@
         <v>384</v>
       </c>
       <c r="M11" s="7">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="N11" s="7">
-        <v>63236</v>
+        <v>101018</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>385</v>
@@ -5436,10 +5436,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>342</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>249455</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5451,10 +5451,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5466,10 +5466,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>622</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>441807</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5489,10 +5489,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="D13" s="7">
-        <v>8531</v>
+        <v>119715</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>388</v>
@@ -5504,10 +5504,10 @@
         <v>390</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="I13" s="7">
-        <v>10575</v>
+        <v>107573</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>391</v>
@@ -5519,10 +5519,10 @@
         <v>393</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>303</v>
       </c>
       <c r="N13" s="7">
-        <v>19107</v>
+        <v>227288</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>394</v>
@@ -5540,10 +5540,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="D14" s="7">
-        <v>4167</v>
+        <v>53493</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>397</v>
@@ -5555,10 +5555,10 @@
         <v>399</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I14" s="7">
-        <v>6212</v>
+        <v>57895</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>400</v>
@@ -5570,10 +5570,10 @@
         <v>402</v>
       </c>
       <c r="M14" s="7">
-        <v>18</v>
+        <v>147</v>
       </c>
       <c r="N14" s="7">
-        <v>10378</v>
+        <v>111388</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>403</v>
@@ -5591,10 +5591,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5606,10 +5606,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>165468</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5621,10 +5621,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>338676</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5644,10 +5644,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7">
-        <v>119715</v>
+        <v>142589</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>406</v>
@@ -5659,10 +5659,10 @@
         <v>408</v>
       </c>
       <c r="H16" s="7">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="I16" s="7">
-        <v>107573</v>
+        <v>141134</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>409</v>
@@ -5674,10 +5674,10 @@
         <v>411</v>
       </c>
       <c r="M16" s="7">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="N16" s="7">
-        <v>227288</v>
+        <v>283722</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>412</v>
@@ -5695,10 +5695,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="D17" s="7">
-        <v>53493</v>
+        <v>32427</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>415</v>
@@ -5710,10 +5710,10 @@
         <v>417</v>
       </c>
       <c r="H17" s="7">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="I17" s="7">
-        <v>57895</v>
+        <v>30809</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>418</v>
@@ -5725,10 +5725,10 @@
         <v>420</v>
       </c>
       <c r="M17" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N17" s="7">
-        <v>111388</v>
+        <v>63236</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>421</v>
@@ -5746,10 +5746,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5761,10 +5761,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>165468</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5776,10 +5776,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>338676</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5820,10 +5820,10 @@
         <v>496033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>426</v>
@@ -5835,7 +5835,7 @@
         <v>1048469</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>427</v>
@@ -5871,13 +5871,13 @@
         <v>154412</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>476</v>
@@ -5886,7 +5886,7 @@
         <v>326949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>432</v>

--- a/data/trans_orig/IP15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DBF6EF-901B-4580-B16C-1EF9EB4D5205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CB24A1-3643-4BD8-AFAC-CB54E53B4B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{F013119B-A0BA-4674-B19D-A09AB496B971}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{79E99C79-84E4-46CE-BF55-C37592D9203F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,64 +71,64 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
   </si>
   <si>
     <t>69,94%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1210 +137,1207 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
     <t>81,28%</t>
   </si>
   <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>77,86%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>72,99%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>78,31%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
   </si>
 </sst>
 </file>
@@ -1351,7 +1348,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1447,39 +1444,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1531,7 +1528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1642,13 +1639,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1657,6 +1647,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1721,19 +1718,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBAB30A-E486-4145-BC07-155D096FFA8C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9200E93F-7FBB-4FB2-9FB2-8DDFADB8713B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1850,10 +1867,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>20657</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1865,10 +1882,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>13030</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1880,10 +1897,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>33687</v>
+        <v>14481</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1901,10 +1918,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>20657</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1916,10 +1933,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>13030</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1931,10 +1948,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>33687</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2005,10 +2022,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7">
-        <v>103746</v>
+        <v>23887</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2020,10 +2037,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>139</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>92878</v>
+        <v>23124</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2035,10 +2052,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>295</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>196624</v>
+        <v>47011</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2056,10 +2073,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="D8" s="7">
-        <v>23887</v>
+        <v>103746</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2071,10 +2088,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>139</v>
       </c>
       <c r="I8" s="7">
-        <v>23124</v>
+        <v>92878</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2086,10 +2103,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>295</v>
       </c>
       <c r="N8" s="7">
-        <v>47011</v>
+        <v>196624</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2160,10 +2177,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>260</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>170836</v>
+        <v>41306</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2175,10 +2192,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>245</v>
+        <v>67</v>
       </c>
       <c r="I10" s="7">
-        <v>153516</v>
+        <v>41647</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2190,10 +2207,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>505</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>324353</v>
+        <v>82952</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2211,10 +2228,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="D11" s="7">
-        <v>41306</v>
+        <v>170836</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2226,10 +2243,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>67</v>
+        <v>245</v>
       </c>
       <c r="I11" s="7">
-        <v>41647</v>
+        <v>153516</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2241,10 +2258,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>129</v>
+        <v>505</v>
       </c>
       <c r="N11" s="7">
-        <v>82952</v>
+        <v>324353</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2315,10 +2332,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>114534</v>
+        <v>35123</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2330,10 +2347,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>187</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>112653</v>
+        <v>25164</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2345,10 +2362,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>365</v>
+        <v>96</v>
       </c>
       <c r="N13" s="7">
-        <v>227188</v>
+        <v>60286</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2366,10 +2383,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>35123</v>
+        <v>114534</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2381,10 +2398,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="I14" s="7">
-        <v>25164</v>
+        <v>112653</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2396,10 +2413,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>365</v>
       </c>
       <c r="N14" s="7">
-        <v>60286</v>
+        <v>227188</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2470,10 +2487,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>250</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>169007</v>
+        <v>38817</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2485,10 +2502,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>240</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>183638</v>
+        <v>25677</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2500,10 +2517,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>490</v>
+        <v>90</v>
       </c>
       <c r="N16" s="7">
-        <v>352645</v>
+        <v>64494</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2521,10 +2538,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>56</v>
+        <v>250</v>
       </c>
       <c r="D17" s="7">
-        <v>38817</v>
+        <v>169007</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2536,10 +2553,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>240</v>
       </c>
       <c r="I17" s="7">
-        <v>25677</v>
+        <v>183638</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2551,10 +2568,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>90</v>
+        <v>490</v>
       </c>
       <c r="N17" s="7">
-        <v>64494</v>
+        <v>352645</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2625,10 +2642,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>871</v>
+        <v>215</v>
       </c>
       <c r="D19" s="7">
-        <v>578781</v>
+        <v>143919</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2640,34 +2657,34 @@
         <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>828</v>
+        <v>190</v>
       </c>
       <c r="I19" s="7">
-        <v>555716</v>
+        <v>125305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1699</v>
+        <v>405</v>
       </c>
       <c r="N19" s="7">
-        <v>1134497</v>
+        <v>269224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,49 +2693,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>215</v>
+        <v>871</v>
       </c>
       <c r="D20" s="7">
-        <v>143919</v>
+        <v>578781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>190</v>
+        <v>828</v>
       </c>
       <c r="I20" s="7">
-        <v>125305</v>
+        <v>555716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>405</v>
+        <v>1699</v>
       </c>
       <c r="N20" s="7">
-        <v>269224</v>
+        <v>1134497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,6 +2787,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2790,8 +2812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{105308C6-15F5-4CAC-BAF6-48042F94B9F2}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D888240D-BF9A-4BCD-A033-E91A76FB28F5}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2807,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2908,49 +2930,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>22803</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>16139</v>
+        <v>6234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="N4" s="7">
-        <v>38943</v>
+        <v>8885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,49 +2981,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>22803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>6234</v>
+        <v>16139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="N5" s="7">
-        <v>8885</v>
+        <v>38943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,49 +3085,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>97457</v>
+        <v>31772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>91772</v>
+        <v>25212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>72</v>
       </c>
       <c r="M7" s="7">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="N7" s="7">
-        <v>189228</v>
+        <v>56985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,49 +3136,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="D8" s="7">
-        <v>31772</v>
+        <v>97457</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="I8" s="7">
-        <v>25212</v>
+        <v>91772</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>156</v>
       </c>
       <c r="M8" s="7">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="N8" s="7">
-        <v>56985</v>
+        <v>189228</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,49 +3240,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>268</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>183515</v>
+        <v>40320</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>63</v>
+      </c>
+      <c r="I10" s="7">
+        <v>41504</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="7">
-        <v>256</v>
-      </c>
-      <c r="I10" s="7">
-        <v>164854</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>524</v>
+        <v>119</v>
       </c>
       <c r="N10" s="7">
-        <v>348369</v>
+        <v>81824</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,40 +3291,40 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>56</v>
+        <v>268</v>
       </c>
       <c r="D11" s="7">
-        <v>40320</v>
+        <v>183515</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>256</v>
+      </c>
+      <c r="I11" s="7">
+        <v>164854</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="H11" s="7">
-        <v>63</v>
-      </c>
-      <c r="I11" s="7">
-        <v>41504</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="M11" s="7">
-        <v>119</v>
+        <v>524</v>
       </c>
       <c r="N11" s="7">
-        <v>81824</v>
+        <v>348369</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>173</v>
@@ -3311,7 +3333,7 @@
         <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,49 +3395,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>129991</v>
+        <v>36601</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>53</v>
+      </c>
+      <c r="I13" s="7">
+        <v>32964</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="H13" s="7">
-        <v>189</v>
-      </c>
-      <c r="I13" s="7">
-        <v>122412</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>110</v>
+      </c>
+      <c r="N13" s="7">
+        <v>69565</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="M13" s="7">
-        <v>388</v>
-      </c>
-      <c r="N13" s="7">
-        <v>252403</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,49 +3446,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>57</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>36601</v>
+        <v>129991</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>189</v>
+      </c>
+      <c r="I14" s="7">
+        <v>122412</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H14" s="7">
-        <v>53</v>
-      </c>
-      <c r="I14" s="7">
-        <v>32964</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>388</v>
+      </c>
+      <c r="N14" s="7">
+        <v>252403</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M14" s="7">
-        <v>110</v>
-      </c>
-      <c r="N14" s="7">
-        <v>69565</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,49 +3550,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>218</v>
+        <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>159668</v>
+        <v>47229</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>56</v>
+      </c>
+      <c r="I16" s="7">
+        <v>41786</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="7">
-        <v>219</v>
-      </c>
-      <c r="I16" s="7">
-        <v>168514</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>199</v>
-      </c>
       <c r="M16" s="7">
-        <v>437</v>
+        <v>119</v>
       </c>
       <c r="N16" s="7">
-        <v>328182</v>
+        <v>89015</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,49 +3601,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>63</v>
+        <v>218</v>
       </c>
       <c r="D17" s="7">
-        <v>47229</v>
+        <v>159668</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>219</v>
+      </c>
+      <c r="I17" s="7">
+        <v>168514</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="7">
-        <v>56</v>
-      </c>
-      <c r="I17" s="7">
-        <v>41786</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="M17" s="7">
-        <v>119</v>
+        <v>437</v>
       </c>
       <c r="N17" s="7">
-        <v>89015</v>
+        <v>328182</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,40 +3705,40 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>849</v>
+        <v>223</v>
       </c>
       <c r="D19" s="7">
-        <v>593434</v>
+        <v>158574</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>213</v>
+      </c>
+      <c r="I19" s="7">
+        <v>147701</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="7">
-        <v>812</v>
-      </c>
-      <c r="I19" s="7">
-        <v>563690</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="M19" s="7">
-        <v>1661</v>
+        <v>436</v>
       </c>
       <c r="N19" s="7">
-        <v>1157124</v>
+        <v>306275</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>215</v>
@@ -3734,10 +3756,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>223</v>
+        <v>849</v>
       </c>
       <c r="D20" s="7">
-        <v>158574</v>
+        <v>593434</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>218</v>
@@ -3749,34 +3771,34 @@
         <v>220</v>
       </c>
       <c r="H20" s="7">
-        <v>213</v>
+        <v>812</v>
       </c>
       <c r="I20" s="7">
-        <v>147701</v>
+        <v>563690</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>221</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
-        <v>436</v>
+        <v>1661</v>
       </c>
       <c r="N20" s="7">
-        <v>306275</v>
+        <v>1157124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,6 +3850,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3848,8 +3875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4A83B3-E0E1-4D44-9D43-31970F0D9690}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576FAABD-300E-4B5C-B0AB-ADA50B2C7AC0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3865,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,49 +3993,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>22064</v>
+        <v>3510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>16048</v>
+        <v>6479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>38112</v>
+        <v>9989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4044,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>3510</v>
+        <v>22064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I5" s="7">
-        <v>6479</v>
+        <v>16048</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="N5" s="7">
-        <v>9989</v>
+        <v>38112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,49 +4148,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>101835</v>
+        <v>20667</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>93300</v>
+        <v>17880</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>195135</v>
+        <v>38547</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,49 +4199,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D8" s="7">
-        <v>20667</v>
+        <v>101835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="I8" s="7">
-        <v>17880</v>
+        <v>93300</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
-        <v>54</v>
+        <v>274</v>
       </c>
       <c r="N8" s="7">
-        <v>38547</v>
+        <v>195135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,49 +4303,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>61</v>
+      </c>
+      <c r="D10" s="7">
+        <v>41147</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="7">
+        <v>69</v>
+      </c>
+      <c r="I10" s="7">
+        <v>42699</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M10" s="7">
+        <v>130</v>
+      </c>
+      <c r="N10" s="7">
+        <v>83846</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="7">
-        <v>183212</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" s="7">
-        <v>265</v>
-      </c>
-      <c r="I10" s="7">
-        <v>164548</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="M10" s="7">
-        <v>536</v>
-      </c>
-      <c r="N10" s="7">
-        <v>347760</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,49 +4354,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>41147</v>
+        <v>183212</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>265</v>
       </c>
       <c r="I11" s="7">
-        <v>42699</v>
+        <v>164548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M11" s="7">
-        <v>130</v>
+        <v>536</v>
       </c>
       <c r="N11" s="7">
-        <v>83846</v>
+        <v>347760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,49 +4458,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>204</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>138867</v>
+        <v>27806</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>128382</v>
+        <v>27615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
-        <v>417</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>267249</v>
+        <v>55421</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,49 +4509,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>27806</v>
+        <v>138867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H14" s="7">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="I14" s="7">
-        <v>27615</v>
+        <v>128382</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M14" s="7">
-        <v>90</v>
+        <v>417</v>
       </c>
       <c r="N14" s="7">
-        <v>55421</v>
+        <v>267249</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,49 +4613,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>175590</v>
+        <v>30146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H16" s="7">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>174632</v>
+        <v>32788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M16" s="7">
-        <v>485</v>
+        <v>86</v>
       </c>
       <c r="N16" s="7">
-        <v>350222</v>
+        <v>62934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,49 +4664,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>248</v>
       </c>
       <c r="D17" s="7">
-        <v>30146</v>
+        <v>175590</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="I17" s="7">
-        <v>32788</v>
+        <v>174632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
-        <v>86</v>
+        <v>485</v>
       </c>
       <c r="N17" s="7">
-        <v>62934</v>
+        <v>350222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +4768,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>886</v>
+        <v>179</v>
       </c>
       <c r="D19" s="7">
-        <v>621568</v>
+        <v>123276</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>268</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>318</v>
@@ -4756,34 +4783,34 @@
         <v>319</v>
       </c>
       <c r="H19" s="7">
-        <v>869</v>
+        <v>192</v>
       </c>
       <c r="I19" s="7">
-        <v>576910</v>
+        <v>127461</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>371</v>
+      </c>
+      <c r="N19" s="7">
+        <v>250737</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M19" s="7">
-        <v>1755</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1198478</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,49 +4819,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>179</v>
+        <v>886</v>
       </c>
       <c r="D20" s="7">
-        <v>123276</v>
+        <v>621568</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>869</v>
+      </c>
+      <c r="I20" s="7">
+        <v>576910</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="7">
-        <v>192</v>
-      </c>
-      <c r="I20" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1755</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1198478</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="M20" s="7">
-        <v>371</v>
-      </c>
-      <c r="N20" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,6 +4913,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4906,8 +4938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33FE8435-97D4-4ECC-9916-F87C274AD1E7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A703CD05-C566-4913-BCA5-9987B3F95C9B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4923,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5024,49 +5056,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>8531</v>
+        <v>4167</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H4" s="7">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6212</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H4" s="7">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7">
-        <v>10575</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10378</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="M4" s="7">
-        <v>29</v>
-      </c>
-      <c r="N4" s="7">
-        <v>19107</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5075,49 +5107,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" s="7">
-        <v>4167</v>
+        <v>8531</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H5" s="7">
+        <v>17</v>
+      </c>
+      <c r="I5" s="7">
+        <v>10575</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>6212</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>29</v>
+      </c>
+      <c r="N5" s="7">
+        <v>19107</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="M5" s="7">
-        <v>18</v>
-      </c>
-      <c r="N5" s="7">
-        <v>10378</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,49 +5211,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>92992</v>
+        <v>21604</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H7" s="7">
+        <v>33</v>
+      </c>
+      <c r="I7" s="7">
+        <v>19324</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H7" s="7">
-        <v>135</v>
-      </c>
-      <c r="I7" s="7">
-        <v>84571</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>65</v>
+      </c>
+      <c r="N7" s="7">
+        <v>40927</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M7" s="7">
-        <v>255</v>
-      </c>
-      <c r="N7" s="7">
-        <v>177563</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,49 +5262,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7">
-        <v>21604</v>
+        <v>92992</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H8" s="7">
+        <v>135</v>
+      </c>
+      <c r="I8" s="7">
+        <v>84571</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="H8" s="7">
-        <v>33</v>
-      </c>
-      <c r="I8" s="7">
-        <v>19324</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>255</v>
+      </c>
+      <c r="N8" s="7">
+        <v>177563</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="M8" s="7">
-        <v>65</v>
-      </c>
-      <c r="N8" s="7">
-        <v>40927</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,49 +5366,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7">
-        <v>188610</v>
+        <v>60845</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="H10" s="7">
+        <v>62</v>
+      </c>
+      <c r="I10" s="7">
+        <v>40173</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H10" s="7">
-        <v>218</v>
-      </c>
-      <c r="I10" s="7">
-        <v>152179</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>153</v>
+      </c>
+      <c r="N10" s="7">
+        <v>101018</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="M10" s="7">
-        <v>469</v>
-      </c>
-      <c r="N10" s="7">
-        <v>340789</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,49 +5417,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>91</v>
+        <v>251</v>
       </c>
       <c r="D11" s="7">
-        <v>60845</v>
+        <v>188610</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="H11" s="7">
+        <v>218</v>
+      </c>
+      <c r="I11" s="7">
+        <v>152179</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H11" s="7">
-        <v>62</v>
-      </c>
-      <c r="I11" s="7">
-        <v>40173</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>469</v>
+      </c>
+      <c r="N11" s="7">
+        <v>340789</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="M11" s="7">
-        <v>153</v>
-      </c>
-      <c r="N11" s="7">
-        <v>101018</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5489,49 +5521,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>119715</v>
+        <v>53493</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="H13" s="7">
+        <v>73</v>
+      </c>
+      <c r="I13" s="7">
+        <v>57895</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="H13" s="7">
-        <v>152</v>
-      </c>
-      <c r="I13" s="7">
-        <v>107573</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>147</v>
+      </c>
+      <c r="N13" s="7">
+        <v>111388</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="M13" s="7">
-        <v>303</v>
-      </c>
-      <c r="N13" s="7">
-        <v>227288</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5540,49 +5572,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="D14" s="7">
-        <v>53493</v>
+        <v>119715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" s="7">
+        <v>152</v>
+      </c>
+      <c r="I14" s="7">
+        <v>107573</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="H14" s="7">
-        <v>73</v>
-      </c>
-      <c r="I14" s="7">
-        <v>57895</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>303</v>
+      </c>
+      <c r="N14" s="7">
+        <v>227288</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="M14" s="7">
-        <v>147</v>
-      </c>
-      <c r="N14" s="7">
-        <v>111388</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,49 +5676,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="D16" s="7">
-        <v>142589</v>
+        <v>32427</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H16" s="7">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7">
+        <v>30809</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="H16" s="7">
-        <v>193</v>
-      </c>
-      <c r="I16" s="7">
-        <v>141134</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>93</v>
+      </c>
+      <c r="N16" s="7">
+        <v>63236</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="M16" s="7">
-        <v>385</v>
-      </c>
-      <c r="N16" s="7">
-        <v>283722</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,49 +5727,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="D17" s="7">
-        <v>32427</v>
+        <v>142589</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="H17" s="7">
+        <v>193</v>
+      </c>
+      <c r="I17" s="7">
+        <v>141134</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>385</v>
+      </c>
+      <c r="N17" s="7">
+        <v>283722</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="H17" s="7">
-        <v>47</v>
-      </c>
-      <c r="I17" s="7">
-        <v>30809</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="M17" s="7">
-        <v>93</v>
-      </c>
-      <c r="N17" s="7">
-        <v>63236</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5799,49 +5831,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>726</v>
+        <v>250</v>
       </c>
       <c r="D19" s="7">
-        <v>552435</v>
+        <v>172537</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="H19" s="7">
+        <v>226</v>
+      </c>
+      <c r="I19" s="7">
+        <v>154412</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="M19" s="7">
+        <v>476</v>
+      </c>
+      <c r="N19" s="7">
+        <v>326949</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="7">
-        <v>715</v>
-      </c>
-      <c r="I19" s="7">
-        <v>496033</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1441</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1048469</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5850,49 +5882,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>250</v>
+        <v>726</v>
       </c>
       <c r="D20" s="7">
-        <v>172537</v>
+        <v>552435</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H20" s="7">
+        <v>715</v>
+      </c>
+      <c r="I20" s="7">
+        <v>496033</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="H20" s="7">
-        <v>226</v>
-      </c>
-      <c r="I20" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1441</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1048469</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="M20" s="7">
-        <v>476</v>
-      </c>
-      <c r="N20" s="7">
-        <v>326949</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,6 +5976,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66CB24A1-3643-4BD8-AFAC-CB54E53B4B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{417EA970-B05B-4DAB-9018-FCE96D693522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{79E99C79-84E4-46CE-BF55-C37592D9203F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0140D65-2B28-4781-AD99-3932EDD9F57E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>18,81%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
   </si>
   <si>
     <t>42,66%</t>
   </si>
   <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1237 +107,1237 @@
     <t>81,19%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
   </si>
   <si>
     <t>69,94%</t>
   </si>
   <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>18,72%</t>
   </si>
   <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>81,28%</t>
   </si>
   <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
   </si>
   <si>
     <t>80,07%</t>
   </si>
   <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>15,82%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>49,12%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
   </si>
   <si>
     <t>23,77%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
   </si>
   <si>
     <t>76,23%</t>
   </si>
   <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>78,35%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9200E93F-7FBB-4FB2-9FB2-8DDFADB8713B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AD8E6C-F01F-445E-AF66-2BD5EE030C90}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2359,7 +2359,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M13" s="7">
         <v>96</v>
@@ -2368,13 +2368,13 @@
         <v>60286</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2389,13 @@
         <v>114534</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>187</v>
@@ -2404,13 +2404,13 @@
         <v>112653</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>365</v>
@@ -2419,13 +2419,13 @@
         <v>227188</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2481,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2493,13 @@
         <v>38817</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -2508,13 +2508,13 @@
         <v>25677</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -2523,13 +2523,13 @@
         <v>64494</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2544,13 @@
         <v>169007</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>240</v>
@@ -2559,13 +2559,13 @@
         <v>183638</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>490</v>
@@ -2574,13 +2574,13 @@
         <v>352645</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2648,13 @@
         <v>143919</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>190</v>
@@ -2663,13 +2663,13 @@
         <v>125305</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>405</v>
@@ -2678,13 +2678,13 @@
         <v>269224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2699,13 @@
         <v>578781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>828</v>
@@ -2714,13 +2714,13 @@
         <v>555716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>1699</v>
@@ -2729,13 +2729,13 @@
         <v>1134497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D888240D-BF9A-4BCD-A033-E91A76FB28F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DED69BC-9FF3-4917-80CB-7E092EADD6D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2829,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2936,13 +2936,13 @@
         <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2951,13 +2951,13 @@
         <v>6234</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2966,13 +2966,13 @@
         <v>8885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2987,13 +2987,13 @@
         <v>22803</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -3002,13 +3002,13 @@
         <v>16139</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>44</v>
@@ -3017,13 +3017,13 @@
         <v>38943</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3091,13 @@
         <v>31772</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>34</v>
@@ -3106,13 +3106,13 @@
         <v>25212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -3121,13 +3121,13 @@
         <v>56985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>97457</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>129</v>
@@ -3157,13 +3157,13 @@
         <v>91772</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -3172,7 +3172,7 @@
         <v>189228</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>157</v>
@@ -3279,10 +3279,10 @@
         <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,13 +3297,13 @@
         <v>183515</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>256</v>
@@ -3312,13 +3312,13 @@
         <v>164854</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>524</v>
@@ -3327,13 +3327,13 @@
         <v>348369</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,13 +3401,13 @@
         <v>36601</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>53</v>
@@ -3416,13 +3416,13 @@
         <v>32964</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -3431,13 +3431,13 @@
         <v>69565</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3452,13 +3452,13 @@
         <v>129991</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>189</v>
@@ -3467,13 +3467,13 @@
         <v>122412</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>388</v>
@@ -3482,13 +3482,13 @@
         <v>252403</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,7 +3544,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3556,13 +3556,13 @@
         <v>47229</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -3571,13 +3571,13 @@
         <v>41786</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>119</v>
@@ -3589,10 +3589,10 @@
         <v>54</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,13 +3607,13 @@
         <v>159668</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H17" s="7">
         <v>219</v>
@@ -3622,13 +3622,13 @@
         <v>168514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M17" s="7">
         <v>437</v>
@@ -3640,10 +3640,10 @@
         <v>63</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3711,13 @@
         <v>158574</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H19" s="7">
         <v>213</v>
@@ -3726,13 +3726,13 @@
         <v>147701</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
         <v>436</v>
@@ -3741,13 +3741,13 @@
         <v>306275</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3762,13 @@
         <v>593434</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
         <v>812</v>
@@ -3777,13 +3777,13 @@
         <v>563690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>1661</v>
@@ -3792,13 +3792,13 @@
         <v>1157124</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3875,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576FAABD-300E-4B5C-B0AB-ADA50B2C7AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87A6AE-8A96-4A5D-88EB-6ED4C8E8D0F9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +3999,13 @@
         <v>3510</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -4014,13 +4014,13 @@
         <v>6479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4029,13 +4029,13 @@
         <v>9989</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4050,13 @@
         <v>22064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -4065,13 +4065,13 @@
         <v>16048</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>43</v>
@@ -4190,7 +4190,7 @@
         <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4205,13 @@
         <v>101835</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>137</v>
@@ -4220,13 +4220,13 @@
         <v>93300</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>274</v>
@@ -4235,13 +4235,13 @@
         <v>195135</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4309,13 @@
         <v>41147</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>69</v>
@@ -4324,13 +4324,13 @@
         <v>42699</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>130</v>
@@ -4339,13 +4339,13 @@
         <v>83846</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4360,13 @@
         <v>183212</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H11" s="7">
         <v>265</v>
@@ -4375,13 +4375,13 @@
         <v>164548</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="M11" s="7">
         <v>536</v>
@@ -4390,13 +4390,13 @@
         <v>347760</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4464,13 @@
         <v>27806</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>46</v>
@@ -4479,13 +4479,13 @@
         <v>27615</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -4494,13 +4494,13 @@
         <v>55421</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4515,13 @@
         <v>138867</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H14" s="7">
         <v>213</v>
@@ -4530,13 +4530,13 @@
         <v>128382</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M14" s="7">
         <v>417</v>
@@ -4545,13 +4545,13 @@
         <v>267249</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4607,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4619,13 +4619,13 @@
         <v>30146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -4634,13 +4634,13 @@
         <v>32788</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>86</v>
@@ -4649,13 +4649,13 @@
         <v>62934</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4670,13 @@
         <v>175590</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>310</v>
+        <v>158</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H17" s="7">
         <v>237</v>
@@ -4685,13 +4685,13 @@
         <v>174632</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>485</v>
@@ -4700,13 +4700,13 @@
         <v>350222</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4774,13 @@
         <v>123276</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>192</v>
@@ -4789,13 +4789,13 @@
         <v>127461</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>199</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>371</v>
@@ -4804,13 +4804,13 @@
         <v>250737</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4825,13 @@
         <v>621568</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>869</v>
@@ -4840,7 +4840,7 @@
         <v>576910</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>327</v>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A703CD05-C566-4913-BCA5-9987B3F95C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029905E6-34FB-402F-97F5-CB79D441506C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5065,10 +5065,10 @@
         <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -5077,13 +5077,13 @@
         <v>6212</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -5092,13 +5092,13 @@
         <v>10378</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5113,13 @@
         <v>8531</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>17</v>
@@ -5128,13 +5128,13 @@
         <v>10575</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5143,13 +5143,13 @@
         <v>19107</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5217,13 @@
         <v>21604</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H7" s="7">
         <v>33</v>
@@ -5232,13 +5232,13 @@
         <v>19324</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -5247,13 +5247,13 @@
         <v>40927</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>210</v>
+        <v>353</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5268,13 +5268,13 @@
         <v>92992</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>135</v>
@@ -5283,13 +5283,13 @@
         <v>84571</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>255</v>
@@ -5298,13 +5298,13 @@
         <v>177563</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5372,13 @@
         <v>60845</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H10" s="7">
         <v>62</v>
@@ -5387,13 +5387,13 @@
         <v>40173</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M10" s="7">
         <v>153</v>
@@ -5402,13 +5402,13 @@
         <v>101018</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5423,13 @@
         <v>188610</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H11" s="7">
         <v>218</v>
@@ -5438,13 +5438,13 @@
         <v>152179</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>469</v>
@@ -5453,13 +5453,13 @@
         <v>340789</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5527,13 @@
         <v>53493</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>73</v>
@@ -5542,13 +5542,13 @@
         <v>57895</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>147</v>
@@ -5557,13 +5557,13 @@
         <v>111388</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5578,13 @@
         <v>119715</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>152</v>
@@ -5593,13 +5593,13 @@
         <v>107573</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>303</v>
@@ -5608,13 +5608,13 @@
         <v>227288</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,7 +5670,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5682,13 +5682,13 @@
         <v>32427</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>47</v>
@@ -5697,13 +5697,13 @@
         <v>30809</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>93</v>
@@ -5712,13 +5712,13 @@
         <v>63236</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>36</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5733,13 @@
         <v>142589</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>193</v>
@@ -5748,13 +5748,13 @@
         <v>141134</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>385</v>
@@ -5763,13 +5763,13 @@
         <v>283722</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>316</v>
+        <v>415</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>418</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,13 +5837,13 @@
         <v>172537</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -5852,13 +5852,13 @@
         <v>154412</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>423</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>476</v>
@@ -5867,13 +5867,13 @@
         <v>326949</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>53</v>
+        <v>422</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5888,13 @@
         <v>552435</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>715</v>
@@ -5906,10 +5906,10 @@
         <v>428</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M20" s="7">
         <v>1441</v>
@@ -5918,7 +5918,7 @@
         <v>1048469</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>431</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP15-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP15-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{417EA970-B05B-4DAB-9018-FCE96D693522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDDA5665-C014-408E-BCE1-D817E552566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C0140D65-2B28-4781-AD99-3932EDD9F57E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{DE6AEEFB-7A1C-47B5-A764-3462B517FB4B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="364">
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1276 +68,1069 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
   </si>
   <si>
     <t>30,06%</t>
   </si>
   <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>76,34%</t>
   </si>
   <si>
     <t>69,94%</t>
   </si>
   <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
   </si>
   <si>
     <t>85,19%</t>
   </si>
   <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>72,99%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>17,22%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
   </si>
   <si>
     <t>82,78%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2012 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
+    <t>85,66%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
   </si>
   <si>
     <t>Menores según si consumieron algún tipo de medicamento en las últimas 2 semanas en 2023 (Tasa respuesta: 99,84%)</t>
   </si>
   <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
   </si>
 </sst>
 </file>
@@ -1749,8 +1542,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AD8E6C-F01F-445E-AF66-2BD5EE030C90}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F9C65F-3A93-4031-A4EE-D36B6E2A38C5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1867,10 +1660,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1882,10 +1675,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1897,10 +1690,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1918,10 +1711,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>20657</v>
+        <v>105908</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1933,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>13030</v>
+        <v>124403</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1948,10 +1741,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>339</v>
       </c>
       <c r="N5" s="7">
-        <v>33687</v>
+        <v>230311</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1969,10 +1762,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1984,10 +1777,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1999,10 +1792,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2022,10 +1815,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D7" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2037,10 +1830,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2052,10 +1845,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N7" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2073,10 +1866,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>156</v>
+        <v>245</v>
       </c>
       <c r="D8" s="7">
-        <v>103746</v>
+        <v>153516</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2088,10 +1881,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="I8" s="7">
-        <v>92878</v>
+        <v>170836</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2103,10 +1896,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>295</v>
+        <v>505</v>
       </c>
       <c r="N8" s="7">
-        <v>196624</v>
+        <v>324353</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2124,10 +1917,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2139,10 +1932,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2154,10 +1947,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2177,10 +1970,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2192,10 +1985,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2207,10 +2000,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N10" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2228,10 +2021,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="D11" s="7">
-        <v>170836</v>
+        <v>112653</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2243,10 +2036,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>245</v>
+        <v>178</v>
       </c>
       <c r="I11" s="7">
-        <v>153516</v>
+        <v>114534</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2258,10 +2051,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>505</v>
+        <v>365</v>
       </c>
       <c r="N11" s="7">
-        <v>324353</v>
+        <v>227188</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2279,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2294,10 +2087,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2309,10 +2102,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2332,10 +2125,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D13" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2347,10 +2140,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2359,22 +2152,22 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N13" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,49 +2176,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>178</v>
+        <v>240</v>
       </c>
       <c r="D14" s="7">
-        <v>114534</v>
+        <v>183638</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>187</v>
+        <v>250</v>
       </c>
       <c r="I14" s="7">
-        <v>112653</v>
+        <v>169007</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>365</v>
+        <v>490</v>
       </c>
       <c r="N14" s="7">
-        <v>227188</v>
+        <v>352645</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2449,10 +2242,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2464,10 +2257,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2481,19 +2274,19 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D16" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>88</v>
@@ -2502,10 +2295,10 @@
         <v>89</v>
       </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>90</v>
@@ -2517,10 +2310,10 @@
         <v>92</v>
       </c>
       <c r="M16" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N16" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>93</v>
@@ -2538,49 +2331,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>250</v>
+        <v>828</v>
       </c>
       <c r="D17" s="7">
-        <v>169007</v>
+        <v>555716</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>871</v>
+      </c>
+      <c r="I17" s="7">
+        <v>578781</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>240</v>
-      </c>
-      <c r="I17" s="7">
-        <v>183638</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1699</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1134497</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>490</v>
-      </c>
-      <c r="N17" s="7">
-        <v>352645</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2604,10 +2397,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2619,10 +2412,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2635,171 +2428,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>215</v>
-      </c>
-      <c r="D19" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>190</v>
-      </c>
-      <c r="I19" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>405</v>
-      </c>
-      <c r="N19" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>871</v>
-      </c>
-      <c r="D20" s="7">
-        <v>578781</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>828</v>
-      </c>
-      <c r="I20" s="7">
-        <v>555716</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1699</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1134497</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2812,8 +2449,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DED69BC-9FF3-4917-80CB-7E092EADD6D3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{506F443D-AC11-4232-A7B1-A40DF6F03BC2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2829,7 +2466,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2930,49 +2567,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>31446</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>6234</v>
+        <v>34424</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="N4" s="7">
-        <v>8885</v>
+        <v>65870</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,49 +2618,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7">
-        <v>22803</v>
+        <v>107911</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="I5" s="7">
-        <v>16139</v>
+        <v>120260</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="N5" s="7">
-        <v>38943</v>
+        <v>228171</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,10 +2669,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3047,10 +2684,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3062,10 +2699,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3085,49 +2722,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D7" s="7">
-        <v>31772</v>
+        <v>41504</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>25212</v>
+        <v>40320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="N7" s="7">
-        <v>56985</v>
+        <v>81824</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,49 +2773,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>256</v>
+      </c>
+      <c r="D8" s="7">
+        <v>164854</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" s="7">
+        <v>268</v>
+      </c>
+      <c r="I8" s="7">
+        <v>183515</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="7">
+        <v>524</v>
+      </c>
+      <c r="N8" s="7">
+        <v>348369</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="7">
-        <v>97457</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H8" s="7">
-        <v>129</v>
-      </c>
-      <c r="I8" s="7">
-        <v>91772</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="M8" s="7">
-        <v>268</v>
-      </c>
-      <c r="N8" s="7">
-        <v>189228</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3202,10 +2839,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223835</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3217,10 +2854,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>346</v>
+        <v>643</v>
       </c>
       <c r="N9" s="7">
-        <v>246213</v>
+        <v>430193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3240,49 +2877,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>40320</v>
+        <v>32964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I10" s="7">
-        <v>41504</v>
+        <v>36601</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="N10" s="7">
-        <v>81824</v>
+        <v>69565</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,49 +2928,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>268</v>
+        <v>189</v>
       </c>
       <c r="D11" s="7">
-        <v>183515</v>
+        <v>122412</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>164854</v>
+        <v>129991</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>524</v>
+        <v>388</v>
       </c>
       <c r="N11" s="7">
-        <v>348369</v>
+        <v>252403</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,10 +2979,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>223835</v>
+        <v>155376</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3357,10 +2994,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I12" s="7">
-        <v>206358</v>
+        <v>166592</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3372,10 +3009,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>643</v>
+        <v>498</v>
       </c>
       <c r="N12" s="7">
-        <v>430193</v>
+        <v>321968</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3395,49 +3032,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>36601</v>
+        <v>41786</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="I13" s="7">
-        <v>32964</v>
+        <v>47229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="N13" s="7">
-        <v>69565</v>
+        <v>89015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,49 +3083,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>129991</v>
+        <v>168514</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
-        <v>189</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>122412</v>
+        <v>159668</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="M14" s="7">
-        <v>388</v>
+        <v>437</v>
       </c>
       <c r="N14" s="7">
-        <v>252403</v>
+        <v>328182</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>166592</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3512,10 +3149,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>155376</v>
+        <v>206897</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3527,10 +3164,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>321968</v>
+        <v>417197</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3544,55 +3181,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>63</v>
+        <v>213</v>
       </c>
       <c r="D16" s="7">
-        <v>47229</v>
+        <v>147701</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>223</v>
       </c>
       <c r="I16" s="7">
-        <v>41786</v>
+        <v>158574</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
-        <v>119</v>
+        <v>436</v>
       </c>
       <c r="N16" s="7">
-        <v>89015</v>
+        <v>306275</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,49 +3238,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>218</v>
+        <v>812</v>
       </c>
       <c r="D17" s="7">
-        <v>159668</v>
+        <v>563690</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
-        <v>219</v>
+        <v>849</v>
       </c>
       <c r="I17" s="7">
-        <v>168514</v>
+        <v>593434</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>437</v>
+        <v>1661</v>
       </c>
       <c r="N17" s="7">
-        <v>328182</v>
+        <v>1157124</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>63</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3652,10 +3289,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1025</v>
       </c>
       <c r="D18" s="7">
-        <v>206897</v>
+        <v>711391</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3667,10 +3304,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1072</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>752008</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3682,10 +3319,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2097</v>
       </c>
       <c r="N18" s="7">
-        <v>417197</v>
+        <v>1463399</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3698,171 +3335,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>223</v>
-      </c>
-      <c r="D19" s="7">
-        <v>158574</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H19" s="7">
-        <v>213</v>
-      </c>
-      <c r="I19" s="7">
-        <v>147701</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="M19" s="7">
-        <v>436</v>
-      </c>
-      <c r="N19" s="7">
-        <v>306275</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>849</v>
-      </c>
-      <c r="D20" s="7">
-        <v>593434</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="7">
-        <v>812</v>
-      </c>
-      <c r="I20" s="7">
-        <v>563690</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1661</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1157124</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1072</v>
-      </c>
-      <c r="D21" s="7">
-        <v>752008</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I21" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2097</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1463399</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3875,8 +3356,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E87A6AE-8A96-4A5D-88EB-6ED4C8E8D0F9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425E4F1A-0766-4E94-B5EE-C17B9FA46C0D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3892,7 +3373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3993,49 +3474,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>3510</v>
+        <v>24359</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>6479</v>
+        <v>24176</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>9989</v>
+        <v>48536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,49 +3525,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>22064</v>
+        <v>109348</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="I5" s="7">
-        <v>16048</v>
+        <v>123900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>317</v>
       </c>
       <c r="N5" s="7">
-        <v>38112</v>
+        <v>233247</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>244</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4095,10 +3576,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4110,10 +3591,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4125,10 +3606,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4148,49 +3629,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="D7" s="7">
-        <v>20667</v>
+        <v>42699</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>17880</v>
+        <v>41147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="N7" s="7">
-        <v>38547</v>
+        <v>83846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,49 +3680,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>137</v>
+        <v>265</v>
       </c>
       <c r="D8" s="7">
-        <v>101835</v>
+        <v>164548</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="I8" s="7">
-        <v>93300</v>
+        <v>183212</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>274</v>
+        <v>536</v>
       </c>
       <c r="N8" s="7">
-        <v>195135</v>
+        <v>347760</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,10 +3731,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4265,10 +3746,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4280,10 +3761,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4303,49 +3784,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>41147</v>
+        <v>27615</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I10" s="7">
-        <v>42699</v>
+        <v>27806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="N10" s="7">
-        <v>83846</v>
+        <v>55421</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,49 +3835,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="D11" s="7">
-        <v>183212</v>
+        <v>128382</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>164548</v>
+        <v>138867</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>536</v>
+        <v>417</v>
       </c>
       <c r="N11" s="7">
-        <v>347760</v>
+        <v>267249</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,10 +3886,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4420,10 +3901,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4435,10 +3916,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4461,46 +3942,46 @@
         <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>27806</v>
+        <v>32788</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>27615</v>
+        <v>30146</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N13" s="7">
-        <v>55421</v>
+        <v>62934</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,49 +3990,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D14" s="7">
-        <v>138867</v>
+        <v>174632</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="I14" s="7">
-        <v>128382</v>
+        <v>175590</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>417</v>
+        <v>485</v>
       </c>
       <c r="N14" s="7">
-        <v>267249</v>
+        <v>350222</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4560,10 +4041,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4575,10 +4056,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4590,10 +4071,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4607,55 +4088,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>42</v>
+        <v>192</v>
       </c>
       <c r="D16" s="7">
-        <v>30146</v>
+        <v>127461</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="I16" s="7">
-        <v>32788</v>
+        <v>123276</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>86</v>
+        <v>371</v>
       </c>
       <c r="N16" s="7">
-        <v>62934</v>
+        <v>250737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,49 +4145,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>248</v>
+        <v>869</v>
       </c>
       <c r="D17" s="7">
-        <v>175590</v>
+        <v>576910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>158</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>237</v>
+        <v>886</v>
       </c>
       <c r="I17" s="7">
-        <v>174632</v>
+        <v>621568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>485</v>
+        <v>1755</v>
       </c>
       <c r="N17" s="7">
-        <v>350222</v>
+        <v>1198478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,10 +4196,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4730,10 +4211,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4745,10 +4226,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4761,171 +4242,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>179</v>
-      </c>
-      <c r="D19" s="7">
-        <v>123276</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>192</v>
-      </c>
-      <c r="I19" s="7">
-        <v>127461</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="M19" s="7">
-        <v>371</v>
-      </c>
-      <c r="N19" s="7">
-        <v>250737</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>886</v>
-      </c>
-      <c r="D20" s="7">
-        <v>621568</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="H20" s="7">
-        <v>869</v>
-      </c>
-      <c r="I20" s="7">
-        <v>576910</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1755</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1198478</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4938,8 +4263,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{029905E6-34FB-402F-97F5-CB79D441506C}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5D597CF-4D31-403C-99CF-924DC3092216}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4955,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,49 +4381,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>4167</v>
+        <v>25841</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>6212</v>
+        <v>27660</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>336</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>10378</v>
+        <v>53501</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,49 +4432,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>152</v>
       </c>
       <c r="D5" s="7">
-        <v>8531</v>
+        <v>91439</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7">
-        <v>10575</v>
+        <v>112752</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>293</v>
       </c>
       <c r="M5" s="7">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="N5" s="7">
-        <v>19107</v>
+        <v>204192</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,10 +4483,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5173,10 +4498,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5188,10 +4513,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5211,49 +4536,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D7" s="7">
-        <v>21604</v>
+        <v>44242</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>347</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>348</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="I7" s="7">
-        <v>19324</v>
+        <v>63809</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>350</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>351</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N7" s="7">
-        <v>40927</v>
+        <v>108051</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>353</v>
+        <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,49 +4587,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>120</v>
+        <v>218</v>
       </c>
       <c r="D8" s="7">
-        <v>92992</v>
+        <v>146270</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
-        <v>135</v>
+        <v>251</v>
       </c>
       <c r="I8" s="7">
-        <v>84571</v>
+        <v>190519</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
-        <v>255</v>
+        <v>469</v>
       </c>
       <c r="N8" s="7">
-        <v>177563</v>
+        <v>336790</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>362</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,10 +4638,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5328,10 +4653,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>342</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>254328</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5343,10 +4668,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>622</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>444841</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5366,49 +4691,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="D10" s="7">
-        <v>60845</v>
+        <v>77071</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7">
-        <v>40173</v>
+        <v>56923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7">
-        <v>101018</v>
+        <v>133994</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,49 +4742,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
-        <v>188610</v>
+        <v>109015</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="I11" s="7">
-        <v>152179</v>
+        <v>128363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
-        <v>469</v>
+        <v>303</v>
       </c>
       <c r="N11" s="7">
-        <v>340789</v>
+        <v>237378</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5468,10 +4793,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>342</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>249455</v>
+        <v>186086</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5483,10 +4808,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5498,10 +4823,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>622</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>441807</v>
+        <v>371372</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5521,49 +4846,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D13" s="7">
-        <v>53493</v>
+        <v>30561</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="I13" s="7">
-        <v>57895</v>
+        <v>33809</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>387</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
       <c r="M13" s="7">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="N13" s="7">
-        <v>111388</v>
+        <v>64371</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,49 +4897,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="D14" s="7">
-        <v>119715</v>
+        <v>137401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="H14" s="7">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="I14" s="7">
-        <v>107573</v>
+        <v>147429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>395</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
-        <v>303</v>
+        <v>385</v>
       </c>
       <c r="N14" s="7">
-        <v>227288</v>
+        <v>284830</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>400</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5623,10 +4948,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5638,10 +4963,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>165468</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5653,10 +4978,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>338676</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5670,55 +4995,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="D16" s="7">
-        <v>32427</v>
+        <v>177715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>401</v>
+        <v>346</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>402</v>
+        <v>347</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
-        <v>47</v>
+        <v>250</v>
       </c>
       <c r="I16" s="7">
-        <v>30809</v>
+        <v>182201</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="M16" s="7">
-        <v>93</v>
+        <v>476</v>
       </c>
       <c r="N16" s="7">
-        <v>63236</v>
+        <v>359916</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>407</v>
+        <v>352</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>353</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,49 +5052,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>192</v>
+        <v>715</v>
       </c>
       <c r="D17" s="7">
-        <v>142589</v>
+        <v>484126</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>411</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
-        <v>193</v>
+        <v>726</v>
       </c>
       <c r="I17" s="7">
-        <v>141134</v>
+        <v>579064</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>413</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
-        <v>385</v>
+        <v>1441</v>
       </c>
       <c r="N17" s="7">
-        <v>283722</v>
+        <v>1063190</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>415</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>661841</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5793,10 +5118,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>976</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761265</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5808,10 +5133,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1917</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1423106</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5824,171 +5149,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>250</v>
-      </c>
-      <c r="D19" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="7">
-        <v>226</v>
-      </c>
-      <c r="I19" s="7">
-        <v>154412</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="M19" s="7">
-        <v>476</v>
-      </c>
-      <c r="N19" s="7">
-        <v>326949</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>726</v>
-      </c>
-      <c r="D20" s="7">
-        <v>552435</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="H20" s="7">
-        <v>715</v>
-      </c>
-      <c r="I20" s="7">
-        <v>496033</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1441</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1048469</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>976</v>
-      </c>
-      <c r="D21" s="7">
-        <v>724972</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>941</v>
-      </c>
-      <c r="I21" s="7">
-        <v>650445</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1917</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1375418</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
